--- a/data/raw/mais_milionaria/mais_milionaria_resultados.xlsx
+++ b/data/raw/mais_milionaria/mais_milionaria_resultados.xlsx
@@ -33086,6 +33086,1183 @@
         <x:v/>
       </x:c>
     </x:row>
+    <x:row>
+      <x:c t="n">
+        <x:v>304</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>19/11/2025</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>02</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>01</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>02</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$0,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$0,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$0,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$11.304,07</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$1.819,97</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>700</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$111,79</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>819</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$50,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>7299</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$24,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>6175</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$12,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>55300</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$6,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Sim</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$4.630.572,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$10.000.000,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="n">
+        <x:v>305</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>22/11/2025</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>04</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>02</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>04</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$0,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$0,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$0,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$25.281,01</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$2.273,01</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>526</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$142,60</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>727</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$50,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>5570</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$24,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>6247</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$12,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>44776</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$6,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Sim</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$4.239.876,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$10.000.000,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="n">
+        <x:v>306</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>26/11/2025</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>07</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>09</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>04</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>06</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$0,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$0,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$152.879,42</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$8.493,30</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$2.079,99</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>626</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$116,29</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>619</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$50,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>6894</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$24,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>4845</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$12,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>51296</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$6,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Sim</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$4.268.340,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$10.000.000,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="n">
+        <x:v>307</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>29/11/2025</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>01</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>01</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>04</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$0,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$0,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$0,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$18.677,55</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$1.569,54</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>709</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$112,90</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>874</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$50,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>7063</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$24,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>6294</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$12,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>52435</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$6,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Sim</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$4.657.302,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$10.000.000,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="n">
+        <x:v>308</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>03/12/2025</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>01</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>06</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$0,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$0,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$165.208,59</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$8.158,45</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$1.512,89</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>509</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$154,55</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>873</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$50,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>5853</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$24,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>6706</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$12,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>47143</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$6,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Sim</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$4.467.810,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$10.000.000,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="n">
+        <x:v>309</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>06/12/2025</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>01</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>08</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>02</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>06</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$0,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$0,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$186.409,33</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$20.712,15</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$2.219,15</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>558</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$159,07</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>840</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$50,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>6182</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$24,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>6373</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$12,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>51748</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$6,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Sim</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$4.944.102,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$11.000.000,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="n">
+        <x:v>310</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10/12/2025</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>02</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>05</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$0,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$0,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$0,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$30.342,62</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$1.667,17</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>505</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$158,46</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>1026</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$50,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>5923</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$24,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>7872</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$12,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>46918</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$6,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Sim</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$4.574.862,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$12.000.000,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="n">
+        <x:v>311</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>13/12/2025</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>02</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>04</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$0,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$0,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$176.574,47</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$8.719,73</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$2.335,64</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>618</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$136,05</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>939</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$50,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>7086</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$24,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>7410</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$12,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>55048</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$6,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Sim</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$4.898.034,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$13.000.000,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="n">
+        <x:v>312</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>17/12/2025</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>01</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>01</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>05</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$0,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$0,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$152.536,79</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$4.842,44</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$1.614,14</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>747</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$97,23</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>915</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$50,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>7124</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$24,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>6554</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$12,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>52156</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$6,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Sim</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$4.372.350,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$13.500.000,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="n">
+        <x:v>313</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>20/12/2025</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>09</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>02</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>03</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$0,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$0,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$79.192,57</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$2.815,73</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$1.450,41</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>816</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$92,42</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>1037</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$50,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>9160</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$24,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>7106</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$12,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>62725</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$6,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Sim</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$4.784.406,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$14.000.000,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="n">
+        <x:v>314</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>24/12/2025</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>07</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>04</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>05</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$0,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$0,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$0,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$31.150,08</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$1.797,12</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>766</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$93,84</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>648</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$50,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>7530</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$24,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>5483</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$12,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>55463</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$6,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Sim</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$4.350.366,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$14.500.000,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <x:pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -33274,7 +34451,7 @@
   <documentManagement>
     <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <AtualizadoPeloTimerJobEm xmlns="4455b8ba-124f-46d5-aaaa-9813efd83d1e">2025-11-16T04:13:12+00:00</AtualizadoPeloTimerJobEm>
+    <AtualizadoPeloTimerJobEm xmlns="4455b8ba-124f-46d5-aaaa-9813efd83d1e">2025-12-26T04:12:24+00:00</AtualizadoPeloTimerJobEm>
   </documentManagement>
 </p:properties>
 </file>
